--- a/CoffeeHub.xlsx
+++ b/CoffeeHub.xlsx
@@ -1261,23 +1261,8 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="str">
-        <v>SAT 10/02/2024</v>
-      </c>
-      <c r="B3" t="str">
-        <v>Nescafe</v>
-      </c>
-      <c r="C3">
-        <v>50000</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>50000</v>
-      </c>
       <c r="M3">
-        <f>SUM(E3:E1000)</f>
+        <f>SUM(E3:E996)</f>
         <v>0</v>
       </c>
       <c r="N3">
@@ -1291,57 +1276,6 @@
       <c r="Q3" t="e">
         <f>P3/N3*100</f>
         <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>SAT 10/02/2024</v>
-      </c>
-      <c r="B4" t="str">
-        <v>Ice Tea</v>
-      </c>
-      <c r="C4">
-        <v>100000</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>SAT 10/02/2024</v>
-      </c>
-      <c r="B5" t="str">
-        <v>Mocha</v>
-      </c>
-      <c r="C5">
-        <v>150000</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>SAT 10/02/2024</v>
-      </c>
-      <c r="B6" t="str">
-        <v>Hot Chocolate</v>
-      </c>
-      <c r="C6">
-        <v>150000</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>150000</v>
       </c>
     </row>
     <row r="501">
@@ -1523,6 +1457,36 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="str">
+        <v>THU 04/04/2024</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Hot Chocolate</v>
+      </c>
+      <c r="C3">
+        <v>150000</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>150000</v>
+      </c>
+      <c r="G3" t="str">
+        <v>THU 04/04/2024</v>
+      </c>
+      <c r="H3" t="str">
+        <v>Water</v>
+      </c>
+      <c r="I3">
+        <v>30000</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>30000</v>
+      </c>
       <c r="M3">
         <f>SUM(E3:E1000)</f>
         <v>0</v>
@@ -1538,6 +1502,89 @@
       <c r="Q3" t="e">
         <f>P3/N3*100</f>
         <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>THU 04/04/2024</v>
+      </c>
+      <c r="B4" t="str">
+        <v>Nescafe</v>
+      </c>
+      <c r="C4">
+        <v>50000</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>50000</v>
+      </c>
+      <c r="G4" t="str">
+        <v>THU 04/04/2024</v>
+      </c>
+      <c r="H4" t="str">
+        <v>Water</v>
+      </c>
+      <c r="I4">
+        <v>30000</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>THU 04/04/2024</v>
+      </c>
+      <c r="B5" t="str">
+        <v>Ice Tea</v>
+      </c>
+      <c r="C5">
+        <v>100000</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>THU 04/04/2024</v>
+      </c>
+      <c r="B6" t="str">
+        <v>Coffee</v>
+      </c>
+      <c r="C6">
+        <v>30000</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>THU 04/04/2024</v>
+      </c>
+      <c r="B7" t="str">
+        <v>American</v>
+      </c>
+      <c r="C7">
+        <v>60000</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>60000</v>
       </c>
     </row>
     <row r="501">
